--- a/index/config.xlsx
+++ b/index/config.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jan.Eggers@hr.de/Nextcloud2/hr-DDJ/projekte/ltwhe23/index/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3F4B16-721E-D342-A766-BD919B053BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EA5CA8-F6DD-0B48-B697-78AA376B58C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1400" yWindow="1420" windowWidth="27840" windowHeight="16740" xr2:uid="{881A6246-7B81-D549-B9EF-53B40A95B016}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>name</t>
   </si>
@@ -177,6 +177,30 @@
   </si>
   <si>
     <t>https://hessen-ltw23-presse.23degrees.eu/wahlergebnisse-ltw23.csv?token=GkvMcKY0jiCcVgnuvybqA-i5UFQCFYY-sCuhlk-65bc&amp;expires=1705334918</t>
+  </si>
+  <si>
+    <t>J40BL</t>
+  </si>
+  <si>
+    <t>Kreis Direkt 5 stärkste</t>
+  </si>
+  <si>
+    <t>Kreis Landesstimmen</t>
+  </si>
+  <si>
+    <t>Gemeinde direkt</t>
+  </si>
+  <si>
+    <t>ikHna</t>
+  </si>
+  <si>
+    <t>hessen_id</t>
+  </si>
+  <si>
+    <t>FxP2J</t>
+  </si>
+  <si>
+    <t>dw-ID für Landesstimmen Hessen</t>
   </si>
 </sst>
 </file>
@@ -227,8 +251,8 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -544,11 +568,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DC66688-1B0B-C34D-BE3D-0BF294384AA9}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="46.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -654,16 +678,31 @@
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C13" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -751,6 +790,17 @@
       </c>
       <c r="C21" s="1" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
